--- a/data/trans_orig/P15B_3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0BE9DA7-F85A-41B0-A62A-9C98697B5BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F846A56E-AFB8-4A2D-960F-2B8826B194EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2B9E1049-2F11-483A-8EEA-40A3B1065297}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D1696DC4-D0AD-4642-B982-B92C0F8734CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="449">
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2007 (Tasa respuesta: 3,21%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>14,7%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -95,10 +95,10 @@
     <t>11,18%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,10 +107,10 @@
     <t>85,3%</t>
   </si>
   <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>88,82%</t>
   </si>
   <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -137,55 +137,55 @@
     <t>32,56%</t>
   </si>
   <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
   </si>
   <si>
     <t>29,32%</t>
   </si>
   <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
   </si>
   <si>
     <t>31,43%</t>
   </si>
   <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
   </si>
   <si>
     <t>67,44%</t>
   </si>
   <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
   </si>
   <si>
     <t>70,68%</t>
   </si>
   <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
   </si>
   <si>
     <t>68,57%</t>
   </si>
   <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,49 +194,49 @@
     <t>51,45%</t>
   </si>
   <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>37,36%</t>
+    <t>43,85%</t>
   </si>
   <si>
     <t>33,7%</t>
   </si>
   <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
   </si>
   <si>
     <t>48,55%</t>
   </si>
   <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
   </si>
   <si>
     <t>86,04%</t>
   </si>
   <si>
-    <t>62,64%</t>
+    <t>56,15%</t>
   </si>
   <si>
     <t>66,3%</t>
   </si>
   <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -245,10 +245,10 @@
     <t>68,77%</t>
   </si>
   <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
   </si>
   <si>
     <t>22,52%</t>
@@ -260,19 +260,19 @@
     <t>53,46%</t>
   </si>
   <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
   </si>
   <si>
     <t>31,23%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
   </si>
   <si>
     <t>77,48%</t>
@@ -284,10 +284,10 @@
     <t>46,54%</t>
   </si>
   <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -296,7 +296,7 @@
     <t>21,84%</t>
   </si>
   <si>
-    <t>58,41%</t>
+    <t>58,06%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -305,13 +305,13 @@
     <t>10,63%</t>
   </si>
   <si>
-    <t>32,27%</t>
+    <t>32,32%</t>
   </si>
   <si>
     <t>78,16%</t>
   </si>
   <si>
-    <t>41,59%</t>
+    <t>41,94%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -320,7 +320,7 @@
     <t>89,37%</t>
   </si>
   <si>
-    <t>67,73%</t>
+    <t>67,68%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -341,55 +341,55 @@
     <t>32,09%</t>
   </si>
   <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>22,58%</t>
   </si>
   <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
   </si>
   <si>
     <t>67,91%</t>
   </si>
   <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
   </si>
   <si>
     <t>89,89%</t>
   </si>
   <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
   </si>
   <si>
     <t>77,42%</t>
   </si>
   <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -401,253 +401,253 @@
     <t>7,82%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>15,05%</t>
+    <t>15,43%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
   </si>
   <si>
     <t>92,18%</t>
   </si>
   <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
   </si>
   <si>
     <t>96,93%</t>
   </si>
   <si>
-    <t>84,95%</t>
+    <t>84,57%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
   </si>
   <si>
     <t>25,84%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
   </si>
   <si>
     <t>21,0%</t>
   </si>
   <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
   </si>
   <si>
     <t>74,16%</t>
   </si>
   <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
   </si>
   <si>
     <t>89,45%</t>
   </si>
   <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
   </si>
   <si>
     <t>24,25%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>20,68%</t>
+    <t>20,71%</t>
   </si>
   <si>
     <t>18,24%</t>
   </si>
   <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
   </si>
   <si>
     <t>75,75%</t>
   </si>
   <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
   </si>
   <si>
     <t>93,33%</t>
   </si>
   <si>
-    <t>79,32%</t>
+    <t>79,29%</t>
   </si>
   <si>
     <t>81,76%</t>
   </si>
   <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
   </si>
   <si>
     <t>43,93%</t>
   </si>
   <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
   </si>
   <si>
     <t>28,6%</t>
   </si>
   <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
   </si>
   <si>
     <t>56,07%</t>
   </si>
   <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
   </si>
   <si>
     <t>87,65%</t>
   </si>
   <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>71,4%</t>
   </si>
   <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
   </si>
   <si>
     <t>48,8%</t>
   </si>
   <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>10,71%</t>
+    <t>12,2%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
   </si>
   <si>
     <t>51,2%</t>
   </si>
   <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
   </si>
   <si>
     <t>97,62%</t>
   </si>
   <si>
-    <t>89,29%</t>
+    <t>87,8%</t>
   </si>
   <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -662,7 +662,7 @@
     <t>1,0%</t>
   </si>
   <si>
-    <t>4,97%</t>
+    <t>4,89%</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -677,61 +677,61 @@
     <t>99,0%</t>
   </si>
   <si>
-    <t>95,03%</t>
+    <t>95,11%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
   </si>
   <si>
     <t>78,33%</t>
   </si>
   <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
   </si>
   <si>
     <t>94,74%</t>
   </si>
   <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
   </si>
   <si>
     <t>86,05%</t>
   </si>
   <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
   </si>
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2015 (Tasa respuesta: 5,53%)</t>
@@ -740,235 +740,241 @@
     <t>2,26%</t>
   </si>
   <si>
-    <t>11,78%</t>
+    <t>13,16%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>32,63%</t>
+    <t>35,68%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>97,74%</t>
   </si>
   <si>
-    <t>88,22%</t>
+    <t>86,84%</t>
   </si>
   <si>
     <t>89,23%</t>
   </si>
   <si>
-    <t>67,37%</t>
+    <t>64,32%</t>
   </si>
   <si>
     <t>95,2%</t>
   </si>
   <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>25,17%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
   </si>
   <si>
     <t>17,43%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
   </si>
   <si>
     <t>22,78%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
   </si>
   <si>
     <t>74,83%</t>
   </si>
   <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>82,57%</t>
   </si>
   <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>77,22%</t>
   </si>
   <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
-    <t>10,95%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
   </si>
   <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>22,9%</t>
+    <t>23,7%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>89,05%</t>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
   </si>
   <si>
     <t>92,55%</t>
   </si>
   <si>
-    <t>77,1%</t>
+    <t>76,3%</t>
   </si>
   <si>
     <t>83,35%</t>
   </si>
   <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>22,4%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
   </si>
   <si>
     <t>17,98%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
   </si>
   <si>
     <t>77,6%</t>
   </si>
   <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>87,24%</t>
   </si>
   <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
   </si>
   <si>
     <t>82,02%</t>
   </si>
   <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>21,95%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>78,05%</t>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -992,55 +998,55 @@
     <t>14,94%</t>
   </si>
   <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
   </si>
   <si>
     <t>85,06%</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
   </si>
   <si>
     <t>92,63%</t>
   </si>
   <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
   </si>
   <si>
     <t>88,78%</t>
   </si>
   <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2023 (Tasa respuesta: 6,52%)</t>
@@ -1049,337 +1055,337 @@
     <t>31,01%</t>
   </si>
   <si>
-    <t>80,37%</t>
+    <t>79,98%</t>
   </si>
   <si>
     <t>17,31%</t>
   </si>
   <si>
-    <t>51,8%</t>
+    <t>52,13%</t>
   </si>
   <si>
     <t>23,34%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
   </si>
   <si>
     <t>68,99%</t>
   </si>
   <si>
-    <t>19,63%</t>
+    <t>20,02%</t>
   </si>
   <si>
     <t>82,69%</t>
   </si>
   <si>
-    <t>48,2%</t>
+    <t>47,87%</t>
   </si>
   <si>
     <t>76,66%</t>
   </si>
   <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
   </si>
   <si>
     <t>36,93%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
   </si>
   <si>
     <t>7,47%</t>
   </si>
   <si>
-    <t>35,26%</t>
+    <t>42,01%</t>
   </si>
   <si>
     <t>25,91%</t>
   </si>
   <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
   </si>
   <si>
     <t>88,34%</t>
   </si>
   <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
   </si>
   <si>
     <t>11,46%</t>
   </si>
   <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
   </si>
   <si>
     <t>88,54%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F32D11-5977-45CD-86AE-A06449FEA110}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFC3353-68B8-42B7-B0D9-4C20D14C1595}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3010,7 +3016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C758CBA-DA0B-4C04-B2B8-D2C0FAD56B15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A2A508-7088-4750-8388-13CBB4F62BED}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4229,7 +4235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FDEC15-A30F-4411-A27C-41108664D28C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2261012-1FA5-4E9F-92F7-EB89B63CD15F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4669,7 +4675,7 @@
         <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>90</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4678,13 +4684,13 @@
         <v>1866</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4693,13 +4699,13 @@
         <v>10143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,13 +4720,13 @@
         <v>27580</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>85</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -4729,10 +4735,10 @@
         <v>23182</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
@@ -4744,13 +4750,13 @@
         <v>50763</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +4824,13 @@
         <v>6459</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4833,13 +4839,13 @@
         <v>3125</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4848,13 +4854,13 @@
         <v>9584</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,13 +4875,13 @@
         <v>22373</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -4884,13 +4890,13 @@
         <v>21360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -4899,13 +4905,13 @@
         <v>43734</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4979,13 @@
         <v>1036</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4988,13 +4994,13 @@
         <v>3208</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5003,13 +5009,13 @@
         <v>4244</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,10 +5030,10 @@
         <v>12953</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
@@ -5039,13 +5045,13 @@
         <v>27150</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -5054,13 +5060,13 @@
         <v>40103</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,7 +5140,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5149,7 +5155,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5164,7 +5170,7 @@
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,7 +5188,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -5197,7 +5203,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -5212,7 +5218,7 @@
         <v>24</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -5283,13 +5289,13 @@
         <v>29542</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5298,13 +5304,13 @@
         <v>14118</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -5313,13 +5319,13 @@
         <v>43660</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,13 +5340,13 @@
         <v>168227</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H23" s="7">
         <v>158</v>
@@ -5349,13 +5355,13 @@
         <v>177335</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M23" s="7">
         <v>321</v>
@@ -5364,13 +5370,13 @@
         <v>345563</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,7 +5454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE24DCE2-3746-4C6B-9FCC-A89EFAE4027D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43234D31-41DB-4AAB-8EB8-3A293A4FA30B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5465,7 +5471,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5572,13 +5578,13 @@
         <v>5584</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5587,13 +5593,13 @@
         <v>3969</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5602,13 +5608,13 @@
         <v>9554</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,10 +5629,10 @@
         <v>12426</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -5638,10 +5644,10 @@
         <v>18957</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -5653,13 +5659,13 @@
         <v>31382</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5733,13 @@
         <v>10120</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5742,13 +5748,13 @@
         <v>1223</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5757,13 +5763,13 @@
         <v>11344</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +5784,13 @@
         <v>17283</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -5793,10 +5799,10 @@
         <v>15149</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -5808,13 +5814,13 @@
         <v>32431</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5888,13 @@
         <v>9055</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5897,13 +5903,13 @@
         <v>2885</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -5912,13 +5918,13 @@
         <v>11940</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>138</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5939,13 @@
         <v>28251</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -5948,13 +5954,13 @@
         <v>26982</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M11" s="7">
         <v>65</v>
@@ -5963,13 +5969,13 @@
         <v>55233</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>147</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,13 +6043,13 @@
         <v>13167</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -6052,13 +6058,13 @@
         <v>2651</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -6067,13 +6073,13 @@
         <v>15818</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6088,13 +6094,13 @@
         <v>38482</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -6103,13 +6109,13 @@
         <v>29007</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -6118,13 +6124,13 @@
         <v>67490</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,13 +6198,13 @@
         <v>9504</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -6207,13 +6213,13 @@
         <v>6091</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -6222,13 +6228,13 @@
         <v>15595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6243,13 +6249,13 @@
         <v>21242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -6258,13 +6264,13 @@
         <v>32105</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -6273,13 +6279,13 @@
         <v>53347</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>40</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,13 +6353,13 @@
         <v>943</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6362,13 +6368,13 @@
         <v>471</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6377,13 +6383,13 @@
         <v>1414</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,10 +6404,10 @@
         <v>37724</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -6413,10 +6419,10 @@
         <v>92787</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -6428,10 +6434,10 @@
         <v>130511</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -6502,13 +6508,13 @@
         <v>48374</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -6517,13 +6523,13 @@
         <v>17291</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -6532,13 +6538,13 @@
         <v>65666</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,13 +6559,13 @@
         <v>155408</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H23" s="7">
         <v>337</v>
@@ -6568,13 +6574,13 @@
         <v>214986</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M23" s="7">
         <v>507</v>
@@ -6583,13 +6589,13 @@
         <v>370393</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P15B_3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F846A56E-AFB8-4A2D-960F-2B8826B194EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2ACFE5A-8740-407A-B39D-DDBF1BBF1EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D1696DC4-D0AD-4642-B982-B92C0F8734CA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{369CD1FB-BF6D-4CB4-B659-F787B872D057}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="437">
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2007 (Tasa respuesta: 3,21%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>14,7%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -95,10 +95,10 @@
     <t>11,18%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,10 +107,10 @@
     <t>85,3%</t>
   </si>
   <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>88,82%</t>
   </si>
   <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -137,55 +137,55 @@
     <t>32,56%</t>
   </si>
   <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
   </si>
   <si>
     <t>29,32%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
   </si>
   <si>
     <t>31,43%</t>
   </si>
   <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
   </si>
   <si>
     <t>67,44%</t>
   </si>
   <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
   </si>
   <si>
     <t>70,68%</t>
   </si>
   <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
   </si>
   <si>
     <t>68,57%</t>
   </si>
   <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,49 +194,49 @@
     <t>51,45%</t>
   </si>
   <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>43,85%</t>
+    <t>37,73%</t>
   </si>
   <si>
     <t>33,7%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
   </si>
   <si>
     <t>48,55%</t>
   </si>
   <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
   </si>
   <si>
     <t>86,04%</t>
   </si>
   <si>
-    <t>56,15%</t>
+    <t>62,27%</t>
   </si>
   <si>
     <t>66,3%</t>
   </si>
   <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -245,49 +245,43 @@
     <t>68,77%</t>
   </si>
   <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
   </si>
   <si>
     <t>22,52%</t>
   </si>
   <si>
-    <t>58,19%</t>
+    <t>58,81%</t>
   </si>
   <si>
     <t>53,46%</t>
   </si>
   <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
+    <t>71,26%</t>
   </si>
   <si>
     <t>31,23%</t>
   </si>
   <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
   </si>
   <si>
     <t>77,48%</t>
   </si>
   <si>
-    <t>41,81%</t>
+    <t>41,19%</t>
   </si>
   <si>
     <t>46,54%</t>
   </si>
   <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
+    <t>28,74%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -296,7 +290,7 @@
     <t>21,84%</t>
   </si>
   <si>
-    <t>58,06%</t>
+    <t>58,15%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -305,13 +299,13 @@
     <t>10,63%</t>
   </si>
   <si>
-    <t>32,32%</t>
+    <t>32,99%</t>
   </si>
   <si>
     <t>78,16%</t>
   </si>
   <si>
-    <t>41,94%</t>
+    <t>41,85%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -320,7 +314,7 @@
     <t>89,37%</t>
   </si>
   <si>
-    <t>67,68%</t>
+    <t>67,01%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -341,55 +335,55 @@
     <t>32,09%</t>
   </si>
   <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
   </si>
   <si>
     <t>22,58%</t>
   </si>
   <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
   </si>
   <si>
     <t>67,91%</t>
   </si>
   <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
   </si>
   <si>
     <t>89,89%</t>
   </si>
   <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
   </si>
   <si>
     <t>77,42%</t>
   </si>
   <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -401,253 +395,235 @@
     <t>7,82%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>15,43%</t>
+    <t>14,58%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
   </si>
   <si>
     <t>92,18%</t>
   </si>
   <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>96,93%</t>
   </si>
   <si>
-    <t>84,57%</t>
+    <t>85,42%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>25,84%</t>
   </si>
   <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
+    <t>27,61%</t>
   </si>
   <si>
     <t>21,0%</t>
   </si>
   <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
+    <t>29,8%</t>
   </si>
   <si>
     <t>74,16%</t>
   </si>
   <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
   </si>
   <si>
     <t>89,45%</t>
   </si>
   <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
+    <t>72,39%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
+    <t>70,2%</t>
   </si>
   <si>
     <t>24,25%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>20,71%</t>
+    <t>20,72%</t>
   </si>
   <si>
     <t>18,24%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
   </si>
   <si>
     <t>75,75%</t>
   </si>
   <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
   </si>
   <si>
     <t>93,33%</t>
   </si>
   <si>
-    <t>79,29%</t>
+    <t>79,28%</t>
   </si>
   <si>
     <t>81,76%</t>
   </si>
   <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
   </si>
   <si>
     <t>43,93%</t>
   </si>
   <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>3,1%</t>
   </si>
   <si>
     <t>28,6%</t>
   </si>
   <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
   </si>
   <si>
     <t>56,07%</t>
   </si>
   <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
   </si>
   <si>
     <t>87,65%</t>
   </si>
   <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>96,9%</t>
   </si>
   <si>
     <t>71,4%</t>
   </si>
   <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
   </si>
   <si>
     <t>48,8%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>12,2%</t>
+    <t>12,39%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
   </si>
   <si>
     <t>51,2%</t>
   </si>
   <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
   </si>
   <si>
     <t>97,62%</t>
   </si>
   <si>
-    <t>87,8%</t>
+    <t>87,61%</t>
   </si>
   <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -656,13 +632,13 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>7,33%</t>
+    <t>7,38%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>4,89%</t>
+    <t>4,99%</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -671,310 +647,304 @@
     <t>98,51%</t>
   </si>
   <si>
-    <t>92,67%</t>
+    <t>92,62%</t>
   </si>
   <si>
     <t>99,0%</t>
   </si>
   <si>
-    <t>95,11%</t>
+    <t>95,01%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
   </si>
   <si>
     <t>78,33%</t>
   </si>
   <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>94,74%</t>
   </si>
   <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>86,05%</t>
   </si>
   <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el trabajo en el último año en 2015 (Tasa respuesta: 5,53%)</t>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el trabajo en el último año en 2016 (Tasa respuesta: 5,53%)</t>
   </si>
   <si>
     <t>2,26%</t>
   </si>
   <si>
-    <t>13,16%</t>
+    <t>11,52%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>35,68%</t>
+    <t>31,97%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>1,5%</t>
   </si>
   <si>
     <t>97,74%</t>
   </si>
   <si>
-    <t>86,84%</t>
+    <t>88,48%</t>
   </si>
   <si>
     <t>89,23%</t>
   </si>
   <si>
-    <t>64,32%</t>
+    <t>68,03%</t>
   </si>
   <si>
     <t>95,2%</t>
   </si>
   <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>98,5%</t>
   </si>
   <si>
     <t>25,17%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
   </si>
   <si>
     <t>17,43%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
   </si>
   <si>
     <t>22,78%</t>
   </si>
   <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
   </si>
   <si>
     <t>74,83%</t>
   </si>
   <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
   </si>
   <si>
     <t>82,57%</t>
   </si>
   <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>77,22%</t>
   </si>
   <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
     <t>10,57%</t>
   </si>
   <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
   </si>
   <si>
     <t>89,43%</t>
   </si>
   <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -998,55 +968,55 @@
     <t>14,94%</t>
   </si>
   <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
   </si>
   <si>
     <t>85,06%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>92,63%</t>
   </si>
   <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
   </si>
   <si>
     <t>88,78%</t>
   </si>
   <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
   </si>
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2023 (Tasa respuesta: 6,52%)</t>
@@ -1220,9 +1190,6 @@
     <t>11,66%</t>
   </si>
   <si>
-    <t>29,15%</t>
-  </si>
-  <si>
     <t>74,51%</t>
   </si>
   <si>
@@ -1242,9 +1209,6 @@
   </si>
   <si>
     <t>81,01%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
   </si>
   <si>
     <t>88,34%</t>
@@ -1797,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFC3353-68B8-42B7-B0D9-4C20D14C1595}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E6AA01-3E30-4425-A143-24191D5EB697}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2419,10 +2383,10 @@
         <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,13 +2401,13 @@
         <v>6103</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2452,10 +2416,10 @@
         <v>7489</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>24</v>
@@ -2467,13 +2431,13 @@
         <v>13591</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,7 +2493,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2541,13 +2505,13 @@
         <v>2046</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2562,7 +2526,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2571,13 +2535,13 @@
         <v>2046</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,10 +2556,10 @@
         <v>7325</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
@@ -2610,7 +2574,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -2622,10 +2586,10 @@
         <v>17196</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>24</v>
@@ -2684,7 +2648,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2717,7 +2681,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2732,7 +2696,7 @@
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,7 +2729,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -2780,7 +2744,7 @@
         <v>24</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -2851,13 +2815,13 @@
         <v>39493</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -2866,13 +2830,13 @@
         <v>9488</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -2881,13 +2845,13 @@
         <v>48980</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2866,13 @@
         <v>83584</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H23" s="7">
         <v>81</v>
@@ -2917,13 +2881,13 @@
         <v>84318</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M23" s="7">
         <v>162</v>
@@ -2932,13 +2896,13 @@
         <v>167903</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,7 +2958,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3016,7 +2980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A2A508-7088-4750-8388-13CBB4F62BED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932CE08A-1110-46D1-96F8-8EF91D660617}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3033,7 +2997,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3140,13 +3104,13 @@
         <v>4589</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3155,13 +3119,13 @@
         <v>973</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3170,13 +3134,13 @@
         <v>5562</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3155,13 @@
         <v>54100</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -3206,10 +3170,10 @@
         <v>30702</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -3221,13 +3185,13 @@
         <v>84802</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3259,13 @@
         <v>21269</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3310,13 +3274,13 @@
         <v>4011</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3325,13 +3289,13 @@
         <v>25279</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3310,13 @@
         <v>61051</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -3361,13 +3325,13 @@
         <v>34019</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7">
         <v>89</v>
@@ -3376,13 +3340,13 @@
         <v>95070</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3414,13 @@
         <v>13716</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3465,13 +3429,13 @@
         <v>1960</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -3480,13 +3444,13 @@
         <v>15676</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3465,13 @@
         <v>42850</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -3516,10 +3480,10 @@
         <v>27428</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
@@ -3531,13 +3495,13 @@
         <v>70278</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3569,13 @@
         <v>16317</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3620,13 +3584,13 @@
         <v>4327</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -3635,13 +3599,13 @@
         <v>20644</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3620,13 @@
         <v>20829</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -3671,13 +3635,13 @@
         <v>30705</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
@@ -3686,13 +3650,13 @@
         <v>51535</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,7 +3712,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3760,13 +3724,13 @@
         <v>6305</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3775,13 +3739,13 @@
         <v>993</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3790,13 +3754,13 @@
         <v>7298</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,13 +3775,13 @@
         <v>6616</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -3826,10 +3790,10 @@
         <v>40764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -3841,13 +3805,13 @@
         <v>47380</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,7 +3867,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3921,7 +3885,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3930,13 +3894,13 @@
         <v>1183</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3945,13 +3909,13 @@
         <v>1183</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,7 +3933,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -3981,10 +3945,10 @@
         <v>78340</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -3996,10 +3960,10 @@
         <v>117670</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -4070,13 +4034,13 @@
         <v>62196</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -4085,13 +4049,13 @@
         <v>13446</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M22" s="7">
         <v>73</v>
@@ -4100,13 +4064,13 @@
         <v>75642</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4085,13 @@
         <v>224776</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H23" s="7">
         <v>228</v>
@@ -4136,13 +4100,13 @@
         <v>241959</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M23" s="7">
         <v>441</v>
@@ -4151,13 +4115,13 @@
         <v>466735</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,7 +4177,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4235,7 +4199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2261012-1FA5-4E9F-92F7-EB89B63CD15F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90255D2-50B1-484C-893F-411ECA84E5C7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4252,7 +4216,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4359,13 +4323,13 @@
         <v>969</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4374,13 +4338,13 @@
         <v>1966</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4389,13 +4353,13 @@
         <v>2936</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,10 +4374,10 @@
         <v>41953</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -4425,10 +4389,10 @@
         <v>16298</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -4440,13 +4404,13 @@
         <v>58250</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +4478,13 @@
         <v>12800</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4529,13 +4493,13 @@
         <v>3953</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -4544,13 +4508,13 @@
         <v>16753</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4529,13 @@
         <v>38057</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -4580,13 +4544,13 @@
         <v>18726</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -4595,13 +4559,13 @@
         <v>56783</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4633,13 @@
         <v>8278</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>85</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4684,13 +4648,13 @@
         <v>1866</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4699,13 +4663,13 @@
         <v>10143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4684,13 @@
         <v>27580</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>90</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -4735,10 +4699,10 @@
         <v>23182</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
@@ -4750,13 +4714,13 @@
         <v>50763</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4788,13 @@
         <v>6459</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4839,13 +4803,13 @@
         <v>3125</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4854,13 +4818,13 @@
         <v>9584</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,13 +4839,13 @@
         <v>22373</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -4890,13 +4854,13 @@
         <v>21360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -4905,13 +4869,13 @@
         <v>43734</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,7 +4931,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4979,13 +4943,13 @@
         <v>1036</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4994,13 +4958,13 @@
         <v>3208</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5009,13 +4973,13 @@
         <v>4244</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,10 +4994,10 @@
         <v>12953</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
@@ -5045,13 +5009,13 @@
         <v>27150</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -5060,13 +5024,13 @@
         <v>40103</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,7 +5086,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5140,7 +5104,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5155,7 +5119,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5170,7 +5134,7 @@
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,7 +5152,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -5203,7 +5167,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -5218,7 +5182,7 @@
         <v>24</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -5289,13 +5253,13 @@
         <v>29542</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5304,13 +5268,13 @@
         <v>14118</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -5319,13 +5283,13 @@
         <v>43660</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5304,13 @@
         <v>168227</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="H23" s="7">
         <v>158</v>
@@ -5355,13 +5319,13 @@
         <v>177335</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="M23" s="7">
         <v>321</v>
@@ -5370,13 +5334,13 @@
         <v>345563</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,7 +5396,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -5454,7 +5418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43234D31-41DB-4AAB-8EB8-3A293A4FA30B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C2F827-E85A-40C5-BE01-FBFEFDC4F7D7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5471,7 +5435,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5578,13 +5542,13 @@
         <v>5584</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5593,13 +5557,13 @@
         <v>3969</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5608,13 +5572,13 @@
         <v>9554</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,10 +5593,10 @@
         <v>12426</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -5644,10 +5608,10 @@
         <v>18957</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -5659,13 +5623,13 @@
         <v>31382</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5697,13 @@
         <v>10120</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5748,13 +5712,13 @@
         <v>1223</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5763,13 +5727,13 @@
         <v>11344</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,13 +5748,13 @@
         <v>17283</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -5799,10 +5763,10 @@
         <v>15149</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -5814,13 +5778,13 @@
         <v>32431</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5852,13 @@
         <v>9055</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5903,13 +5867,13 @@
         <v>2885</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -5918,13 +5882,13 @@
         <v>11940</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +5903,13 @@
         <v>28251</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -5954,13 +5918,13 @@
         <v>26982</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="M11" s="7">
         <v>65</v>
@@ -5969,13 +5933,13 @@
         <v>55233</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6007,13 @@
         <v>13167</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -6058,13 +6022,13 @@
         <v>2651</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -6073,13 +6037,13 @@
         <v>15818</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,13 +6058,13 @@
         <v>38482</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -6109,13 +6073,13 @@
         <v>29007</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -6124,13 +6088,13 @@
         <v>67490</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>401</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6186,7 +6150,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6198,13 +6162,13 @@
         <v>9504</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -6213,13 +6177,13 @@
         <v>6091</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -6228,10 +6192,10 @@
         <v>15595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>31</v>
@@ -6249,13 +6213,13 @@
         <v>21242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -6264,13 +6228,13 @@
         <v>32105</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -6279,13 +6243,13 @@
         <v>53347</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>40</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,7 +6305,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6353,13 +6317,13 @@
         <v>943</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6368,13 +6332,13 @@
         <v>471</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6383,13 +6347,13 @@
         <v>1414</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,10 +6368,10 @@
         <v>37724</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -6419,10 +6383,10 @@
         <v>92787</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -6434,10 +6398,10 @@
         <v>130511</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -6508,13 +6472,13 @@
         <v>48374</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -6523,13 +6487,13 @@
         <v>17291</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -6538,13 +6502,13 @@
         <v>65666</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,13 +6523,13 @@
         <v>155408</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="H23" s="7">
         <v>337</v>
@@ -6574,13 +6538,13 @@
         <v>214986</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="M23" s="7">
         <v>507</v>
@@ -6589,13 +6553,13 @@
         <v>370393</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,7 +6615,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15B_3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2ACFE5A-8740-407A-B39D-DDBF1BBF1EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF31D5FE-8690-4AC8-9DFB-4532A4EEC490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{369CD1FB-BF6D-4CB4-B659-F787B872D057}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{67C57BE4-D74C-4220-8A5E-6400472D437D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="447">
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2007 (Tasa respuesta: 3,21%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>14,7%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -95,10 +95,10 @@
     <t>11,18%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,10 +107,10 @@
     <t>85,3%</t>
   </si>
   <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,10 +125,10 @@
     <t>88,82%</t>
   </si>
   <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -137,10 +137,10 @@
     <t>32,56%</t>
   </si>
   <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
   </si>
   <si>
     <t>29,32%</t>
@@ -149,31 +149,31 @@
     <t>10,56%</t>
   </si>
   <si>
-    <t>54,69%</t>
+    <t>54,09%</t>
   </si>
   <si>
     <t>31,43%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
   </si>
   <si>
     <t>67,44%</t>
   </si>
   <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
   </si>
   <si>
     <t>70,68%</t>
   </si>
   <si>
-    <t>45,31%</t>
+    <t>45,91%</t>
   </si>
   <si>
     <t>89,44%</t>
@@ -182,10 +182,10 @@
     <t>68,57%</t>
   </si>
   <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,49 +194,49 @@
     <t>51,45%</t>
   </si>
   <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>37,73%</t>
+    <t>37,36%</t>
   </si>
   <si>
     <t>33,7%</t>
   </si>
   <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
   </si>
   <si>
     <t>48,55%</t>
   </si>
   <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
   </si>
   <si>
     <t>86,04%</t>
   </si>
   <si>
-    <t>62,27%</t>
+    <t>62,64%</t>
   </si>
   <si>
     <t>66,3%</t>
   </si>
   <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -245,43 +245,49 @@
     <t>68,77%</t>
   </si>
   <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
   </si>
   <si>
     <t>22,52%</t>
   </si>
   <si>
-    <t>58,81%</t>
+    <t>58,19%</t>
   </si>
   <si>
     <t>53,46%</t>
   </si>
   <si>
-    <t>71,26%</t>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
   </si>
   <si>
     <t>31,23%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
   </si>
   <si>
     <t>77,48%</t>
   </si>
   <si>
-    <t>41,19%</t>
+    <t>41,81%</t>
   </si>
   <si>
     <t>46,54%</t>
   </si>
   <si>
-    <t>28,74%</t>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -290,7 +296,7 @@
     <t>21,84%</t>
   </si>
   <si>
-    <t>58,15%</t>
+    <t>58,41%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -299,13 +305,13 @@
     <t>10,63%</t>
   </si>
   <si>
-    <t>32,99%</t>
+    <t>32,27%</t>
   </si>
   <si>
     <t>78,16%</t>
   </si>
   <si>
-    <t>41,85%</t>
+    <t>41,59%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -314,7 +320,7 @@
     <t>89,37%</t>
   </si>
   <si>
-    <t>67,01%</t>
+    <t>67,73%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -335,55 +341,55 @@
     <t>32,09%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
   </si>
   <si>
     <t>22,58%</t>
   </si>
   <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
   </si>
   <si>
     <t>67,91%</t>
   </si>
   <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
   </si>
   <si>
     <t>89,89%</t>
   </si>
   <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>77,42%</t>
   </si>
   <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -395,235 +401,253 @@
     <t>7,82%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>14,58%</t>
+    <t>15,05%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
   </si>
   <si>
     <t>92,18%</t>
   </si>
   <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>96,93%</t>
   </si>
   <si>
-    <t>85,42%</t>
+    <t>84,95%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
   </si>
   <si>
     <t>25,84%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>27,61%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
   </si>
   <si>
     <t>21,0%</t>
   </si>
   <si>
-    <t>29,8%</t>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
   </si>
   <si>
     <t>74,16%</t>
   </si>
   <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
   </si>
   <si>
     <t>89,45%</t>
   </si>
   <si>
-    <t>72,39%</t>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>70,2%</t>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
   </si>
   <si>
     <t>24,25%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>20,72%</t>
+    <t>20,68%</t>
   </si>
   <si>
     <t>18,24%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
   </si>
   <si>
     <t>75,75%</t>
   </si>
   <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>93,33%</t>
   </si>
   <si>
-    <t>79,28%</t>
+    <t>79,32%</t>
   </si>
   <si>
     <t>81,76%</t>
   </si>
   <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
   </si>
   <si>
     <t>43,93%</t>
   </si>
   <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>3,1%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
   </si>
   <si>
     <t>28,6%</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
   </si>
   <si>
     <t>56,07%</t>
   </si>
   <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
   </si>
   <si>
     <t>87,65%</t>
   </si>
   <si>
-    <t>96,9%</t>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
   </si>
   <si>
     <t>71,4%</t>
   </si>
   <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
   </si>
   <si>
     <t>48,8%</t>
   </si>
   <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>12,39%</t>
+    <t>10,71%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
   </si>
   <si>
     <t>51,2%</t>
   </si>
   <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
   <si>
     <t>97,62%</t>
   </si>
   <si>
-    <t>87,61%</t>
+    <t>89,29%</t>
   </si>
   <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -632,13 +656,13 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>7,38%</t>
+    <t>7,33%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>4,99%</t>
+    <t>4,97%</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -647,67 +671,67 @@
     <t>98,51%</t>
   </si>
   <si>
-    <t>92,62%</t>
+    <t>92,67%</t>
   </si>
   <si>
     <t>99,0%</t>
   </si>
   <si>
-    <t>95,01%</t>
+    <t>95,03%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
   </si>
   <si>
     <t>78,33%</t>
   </si>
   <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
   </si>
   <si>
     <t>94,74%</t>
   </si>
   <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
   </si>
   <si>
     <t>86,05%</t>
   </si>
   <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2016 (Tasa respuesta: 5,53%)</t>
@@ -716,235 +740,235 @@
     <t>2,26%</t>
   </si>
   <si>
-    <t>11,52%</t>
+    <t>11,78%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>31,97%</t>
+    <t>32,63%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>1,5%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
   </si>
   <si>
     <t>97,74%</t>
   </si>
   <si>
-    <t>88,48%</t>
+    <t>88,22%</t>
   </si>
   <si>
     <t>89,23%</t>
   </si>
   <si>
-    <t>68,03%</t>
+    <t>67,37%</t>
   </si>
   <si>
     <t>95,2%</t>
   </si>
   <si>
-    <t>98,5%</t>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
   </si>
   <si>
     <t>25,17%</t>
   </si>
   <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
   </si>
   <si>
     <t>17,43%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
   </si>
   <si>
     <t>22,78%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
   </si>
   <si>
     <t>74,83%</t>
   </si>
   <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
   </si>
   <si>
     <t>82,57%</t>
   </si>
   <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>77,22%</t>
   </si>
   <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
-    <t>40,26%</t>
+    <t>10,95%</t>
   </si>
   <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>23,36%</t>
+    <t>22,9%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
   </si>
   <si>
     <t>76,92%</t>
   </si>
   <si>
-    <t>59,74%</t>
+    <t>89,05%</t>
   </si>
   <si>
     <t>92,55%</t>
   </si>
   <si>
-    <t>76,64%</t>
+    <t>77,1%</t>
   </si>
   <si>
     <t>83,35%</t>
   </si>
   <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
   </si>
   <si>
     <t>22,4%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
   </si>
   <si>
     <t>17,98%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
   </si>
   <si>
     <t>77,6%</t>
   </si>
   <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
   </si>
   <si>
     <t>87,24%</t>
   </si>
   <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
   </si>
   <si>
     <t>82,02%</t>
   </si>
   <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>37,67%</t>
+    <t>30,22%</t>
   </si>
   <si>
     <t>10,57%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
+    <t>21,95%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>62,33%</t>
+    <t>69,78%</t>
   </si>
   <si>
     <t>89,43%</t>
   </si>
   <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>78,05%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -968,55 +992,55 @@
     <t>14,94%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
   </si>
   <si>
     <t>85,06%</t>
   </si>
   <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
   </si>
   <si>
     <t>92,63%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>88,78%</t>
   </si>
   <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2023 (Tasa respuesta: 6,52%)</t>
@@ -1025,331 +1049,337 @@
     <t>31,01%</t>
   </si>
   <si>
-    <t>79,98%</t>
+    <t>80,37%</t>
   </si>
   <si>
     <t>17,31%</t>
   </si>
   <si>
-    <t>52,13%</t>
+    <t>51,8%</t>
   </si>
   <si>
     <t>23,34%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
   </si>
   <si>
     <t>68,99%</t>
   </si>
   <si>
-    <t>20,02%</t>
+    <t>19,63%</t>
   </si>
   <si>
     <t>82,69%</t>
   </si>
   <si>
-    <t>47,87%</t>
+    <t>48,2%</t>
   </si>
   <si>
     <t>76,66%</t>
   </si>
   <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
   </si>
   <si>
     <t>36,93%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
   </si>
   <si>
     <t>7,47%</t>
   </si>
   <si>
-    <t>42,01%</t>
+    <t>35,26%</t>
   </si>
   <si>
     <t>25,91%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
   </si>
   <si>
     <t>63,07%</t>
   </si>
   <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
   </si>
   <si>
     <t>92,53%</t>
   </si>
   <si>
-    <t>57,99%</t>
+    <t>64,74%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
   </si>
   <si>
     <t>24,27%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
   </si>
   <si>
     <t>17,78%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
+    <t>30,11%</t>
   </si>
   <si>
     <t>75,73%</t>
   </si>
   <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
   </si>
   <si>
     <t>90,34%</t>
   </si>
   <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>82,22%</t>
   </si>
   <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>69,89%</t>
   </si>
   <si>
     <t>25,49%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
   </si>
   <si>
     <t>8,37%</t>
   </si>
   <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>97,47%</t>
   </si>
   <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>95,87%</t>
+    <t>96,45%</t>
   </si>
   <si>
     <t>23,74%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>76,26%</t>
   </si>
   <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
   </si>
   <si>
     <t>92,56%</t>
   </si>
   <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E6AA01-3E30-4425-A143-24191D5EB697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21104A7-C130-4B58-A013-5A606B40844E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2383,10 +2413,10 @@
         <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,13 +2431,13 @@
         <v>6103</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2416,10 +2446,10 @@
         <v>7489</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>24</v>
@@ -2431,13 +2461,13 @@
         <v>13591</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,7 +2523,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2505,13 +2535,13 @@
         <v>2046</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2526,7 +2556,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2535,13 +2565,13 @@
         <v>2046</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,10 +2586,10 @@
         <v>7325</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
@@ -2574,7 +2604,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>26</v>
@@ -2586,10 +2616,10 @@
         <v>17196</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>24</v>
@@ -2648,7 +2678,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2681,7 +2711,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2696,7 +2726,7 @@
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,7 +2759,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -2744,7 +2774,7 @@
         <v>24</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -2815,13 +2845,13 @@
         <v>39493</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -2830,13 +2860,13 @@
         <v>9488</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -2845,13 +2875,13 @@
         <v>48980</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,13 +2896,13 @@
         <v>83584</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H23" s="7">
         <v>81</v>
@@ -2881,13 +2911,13 @@
         <v>84318</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M23" s="7">
         <v>162</v>
@@ -2896,13 +2926,13 @@
         <v>167903</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,7 +2988,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2980,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932CE08A-1110-46D1-96F8-8EF91D660617}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC727C8-A250-4ECA-8AF8-DABC7D51DA67}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2997,7 +3027,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3104,13 +3134,13 @@
         <v>4589</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3119,13 +3149,13 @@
         <v>973</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3134,13 +3164,13 @@
         <v>5562</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3185,13 @@
         <v>54100</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -3170,10 +3200,10 @@
         <v>30702</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -3185,13 +3215,13 @@
         <v>84802</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3289,13 @@
         <v>21269</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3274,13 +3304,13 @@
         <v>4011</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3289,13 +3319,13 @@
         <v>25279</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3340,13 @@
         <v>61051</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -3325,13 +3355,13 @@
         <v>34019</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>89</v>
@@ -3340,13 +3370,13 @@
         <v>95070</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>61</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3444,13 @@
         <v>13716</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3429,13 +3459,13 @@
         <v>1960</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -3444,13 +3474,13 @@
         <v>15676</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3495,13 @@
         <v>42850</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -3480,10 +3510,10 @@
         <v>27428</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
@@ -3495,13 +3525,13 @@
         <v>70278</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,13 +3599,13 @@
         <v>16317</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3584,13 +3614,13 @@
         <v>4327</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -3599,13 +3629,13 @@
         <v>20644</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,13 +3650,13 @@
         <v>20829</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -3635,13 +3665,13 @@
         <v>30705</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
@@ -3650,13 +3680,13 @@
         <v>51535</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,7 +3742,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3724,13 +3754,13 @@
         <v>6305</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3739,13 +3769,13 @@
         <v>993</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3754,13 +3784,13 @@
         <v>7298</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3805,13 @@
         <v>6616</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -3790,10 +3820,10 @@
         <v>40764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -3805,13 +3835,13 @@
         <v>47380</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,7 +3897,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3885,7 +3915,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3894,13 +3924,13 @@
         <v>1183</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3909,13 +3939,13 @@
         <v>1183</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,7 +3963,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -3945,10 +3975,10 @@
         <v>78340</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -3960,10 +3990,10 @@
         <v>117670</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -4034,13 +4064,13 @@
         <v>62196</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -4049,13 +4079,13 @@
         <v>13446</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M22" s="7">
         <v>73</v>
@@ -4064,13 +4094,13 @@
         <v>75642</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4115,13 @@
         <v>224776</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H23" s="7">
         <v>228</v>
@@ -4100,13 +4130,13 @@
         <v>241959</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="M23" s="7">
         <v>441</v>
@@ -4115,13 +4145,13 @@
         <v>466735</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,7 +4207,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4199,7 +4229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90255D2-50B1-484C-893F-411ECA84E5C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE3954D-04B6-4E8B-8CDD-9B971945F2BF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4216,7 +4246,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4323,13 +4353,13 @@
         <v>969</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4338,13 +4368,13 @@
         <v>1966</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4353,13 +4383,13 @@
         <v>2936</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,10 +4404,10 @@
         <v>41953</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -4389,10 +4419,10 @@
         <v>16298</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -4404,13 +4434,13 @@
         <v>58250</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4508,13 @@
         <v>12800</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4493,13 +4523,13 @@
         <v>3953</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -4508,13 +4538,13 @@
         <v>16753</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4559,13 @@
         <v>38057</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -4544,13 +4574,13 @@
         <v>18726</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -4559,13 +4589,13 @@
         <v>56783</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4663,13 @@
         <v>8278</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>85</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4648,13 +4678,13 @@
         <v>1866</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4663,13 +4693,13 @@
         <v>10143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,13 +4714,13 @@
         <v>27580</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>85</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -4699,10 +4729,10 @@
         <v>23182</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
@@ -4714,13 +4744,13 @@
         <v>50763</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4818,13 @@
         <v>6459</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4803,13 +4833,13 @@
         <v>3125</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4818,13 +4848,13 @@
         <v>9584</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,13 +4869,13 @@
         <v>22373</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -4854,13 +4884,13 @@
         <v>21360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -4869,13 +4899,13 @@
         <v>43734</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,7 +4961,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4943,13 +4973,13 @@
         <v>1036</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4958,13 +4988,13 @@
         <v>3208</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4973,13 +5003,13 @@
         <v>4244</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>292</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,10 +5024,10 @@
         <v>12953</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
@@ -5009,13 +5039,13 @@
         <v>27150</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -5024,13 +5054,13 @@
         <v>40103</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,7 +5116,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5104,7 +5134,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5119,7 +5149,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5134,7 +5164,7 @@
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,7 +5182,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -5167,7 +5197,7 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
@@ -5182,7 +5212,7 @@
         <v>24</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -5253,13 +5283,13 @@
         <v>29542</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5268,13 +5298,13 @@
         <v>14118</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -5283,13 +5313,13 @@
         <v>43660</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5334,13 @@
         <v>168227</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H23" s="7">
         <v>158</v>
@@ -5319,13 +5349,13 @@
         <v>177335</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="M23" s="7">
         <v>321</v>
@@ -5334,13 +5364,13 @@
         <v>345563</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,7 +5426,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5418,7 +5448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C2F827-E85A-40C5-BE01-FBFEFDC4F7D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0D4621-6D3B-4AB6-A7AA-A74DD4D935AD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5435,7 +5465,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5542,13 +5572,13 @@
         <v>5584</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5557,13 +5587,13 @@
         <v>3969</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5572,13 +5602,13 @@
         <v>9554</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,10 +5623,10 @@
         <v>12426</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -5608,10 +5638,10 @@
         <v>18957</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -5623,13 +5653,13 @@
         <v>31382</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5727,13 @@
         <v>10120</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5712,13 +5742,13 @@
         <v>1223</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5727,13 +5757,13 @@
         <v>11344</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,13 +5778,13 @@
         <v>17283</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -5763,10 +5793,10 @@
         <v>15149</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -5778,13 +5808,13 @@
         <v>32431</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5882,13 @@
         <v>9055</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5867,13 +5897,13 @@
         <v>2885</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -5882,13 +5912,13 @@
         <v>11940</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,13 +5933,13 @@
         <v>28251</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -5918,13 +5948,13 @@
         <v>26982</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="M11" s="7">
         <v>65</v>
@@ -5933,13 +5963,13 @@
         <v>55233</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,13 +6037,13 @@
         <v>13167</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -6022,13 +6052,13 @@
         <v>2651</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -6037,13 +6067,13 @@
         <v>15818</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>105</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,13 +6088,13 @@
         <v>38482</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -6073,13 +6103,13 @@
         <v>29007</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -6088,13 +6118,13 @@
         <v>67490</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>113</v>
+        <v>397</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,7 +6180,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6162,13 +6192,13 @@
         <v>9504</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -6177,13 +6207,13 @@
         <v>6091</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -6192,13 +6222,13 @@
         <v>15595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>31</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,13 +6243,13 @@
         <v>21242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -6228,13 +6258,13 @@
         <v>32105</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -6243,13 +6273,13 @@
         <v>53347</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>40</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6305,7 +6335,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6317,13 +6347,13 @@
         <v>943</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6332,13 +6362,13 @@
         <v>471</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -6347,13 +6377,13 @@
         <v>1414</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6368,10 +6398,10 @@
         <v>37724</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -6383,10 +6413,10 @@
         <v>92787</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -6398,10 +6428,10 @@
         <v>130511</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -6472,13 +6502,13 @@
         <v>48374</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -6487,13 +6517,13 @@
         <v>17291</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -6502,13 +6532,13 @@
         <v>65666</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,13 +6553,13 @@
         <v>155408</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="H23" s="7">
         <v>337</v>
@@ -6538,13 +6568,13 @@
         <v>214986</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="M23" s="7">
         <v>507</v>
@@ -6553,13 +6583,13 @@
         <v>370393</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,7 +6645,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15B_3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF31D5FE-8690-4AC8-9DFB-4532A4EEC490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B65C4081-D0B0-4375-9480-3186C2858EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{67C57BE4-D74C-4220-8A5E-6400472D437D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E210D7F6-F8F9-466E-9DB9-C9DC58840B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="450">
   <si>
     <t>Población que ha tenido un accidente en el trabajo en el último año en 2007 (Tasa respuesta: 3,21%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>95,78%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>32,56%</t>
@@ -188,7 +188,7 @@
     <t>80,87%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>51,45%</t>
@@ -239,7 +239,7 @@
     <t>82,26%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>68,77%</t>
@@ -290,7 +290,7 @@
     <t>66,09%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>21,84%</t>
@@ -323,19 +323,40 @@
     <t>67,73%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
   </si>
   <si>
     <t>32,09%</t>
@@ -650,736 +671,724 @@
     <t>94,4%</t>
   </si>
   <si>
-    <t>5,03%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el trabajo en el último año en 2016 (Tasa respuesta: 5,53%)</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el trabajo en el último año en 2023 (Tasa respuesta: 6,52%)</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
   </si>
   <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el trabajo en el último año en 2016 (Tasa respuesta: 5,53%)</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el trabajo en el último año en 2023 (Tasa respuesta: 6,52%)</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
   </si>
   <si>
     <t>17,31%</t>
   </si>
   <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
   </si>
   <si>
     <t>82,69%</t>
   </si>
   <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
   </si>
 </sst>
 </file>
@@ -1791,8 +1800,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21104A7-C130-4B58-A013-5A606B40844E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4732BAFB-BF00-4136-9182-D762F1FFBAA1}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2696,7 +2705,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2711,7 +2720,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2735,40 +2744,40 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>10585</v>
+        <v>4653</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H20" s="7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I20" s="7">
-        <v>31714</v>
+        <v>9114</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M20" s="7">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="N20" s="7">
-        <v>42299</v>
+        <v>13767</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>24</v>
@@ -2786,10 +2795,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>10585</v>
+        <v>4653</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -2801,10 +2810,10 @@
         <v>26</v>
       </c>
       <c r="H21" s="7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I21" s="7">
-        <v>31714</v>
+        <v>9114</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -2816,10 +2825,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="7">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="N21" s="7">
-        <v>42299</v>
+        <v>13767</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -2833,55 +2842,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>39493</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="7">
-        <v>9</v>
-      </c>
-      <c r="I22" s="7">
-        <v>9488</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M22" s="7">
-        <v>47</v>
-      </c>
-      <c r="N22" s="7">
-        <v>48980</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,49 +2899,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>83584</v>
+        <v>5933</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="H23" s="7">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I23" s="7">
-        <v>84318</v>
+        <v>22600</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="M23" s="7">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="N23" s="7">
-        <v>167903</v>
+        <v>28533</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,63 +2950,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>6</v>
+      </c>
+      <c r="D24" s="7">
+        <v>5933</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
+        <v>20</v>
+      </c>
+      <c r="I24" s="7">
+        <v>22600</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="7">
+        <v>26</v>
+      </c>
+      <c r="N24" s="7">
+        <v>28533</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>38</v>
+      </c>
+      <c r="D25" s="7">
+        <v>39493</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="7">
+        <v>9</v>
+      </c>
+      <c r="I25" s="7">
+        <v>9488</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M25" s="7">
+        <v>47</v>
+      </c>
+      <c r="N25" s="7">
+        <v>48980</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>81</v>
+      </c>
+      <c r="D26" s="7">
+        <v>83584</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="7">
+        <v>81</v>
+      </c>
+      <c r="I26" s="7">
+        <v>84318</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="7">
+      <c r="L26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M26" s="7">
+        <v>162</v>
+      </c>
+      <c r="N26" s="7">
+        <v>167903</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>119</v>
+      </c>
+      <c r="D27" s="7">
         <v>123077</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7">
         <v>90</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>93806</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="7">
         <v>209</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>216883</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>117</v>
+      <c r="O27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3010,8 +3175,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC727C8-A250-4ECA-8AF8-DABC7D51DA67}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55DECA1-157E-4999-80BB-AF06455C8C3A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3027,7 +3192,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3134,13 +3299,13 @@
         <v>4589</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3149,13 +3314,13 @@
         <v>973</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3164,13 +3329,13 @@
         <v>5562</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3350,13 @@
         <v>54100</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -3200,10 +3365,10 @@
         <v>30702</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -3215,13 +3380,13 @@
         <v>84802</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3454,13 @@
         <v>21269</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3304,13 +3469,13 @@
         <v>4011</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3319,13 +3484,13 @@
         <v>25279</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3505,13 @@
         <v>61051</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -3355,13 +3520,13 @@
         <v>34019</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>89</v>
@@ -3370,13 +3535,13 @@
         <v>95070</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3609,13 @@
         <v>13716</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3459,13 +3624,13 @@
         <v>1960</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -3474,13 +3639,13 @@
         <v>15676</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3660,13 @@
         <v>42850</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -3510,10 +3675,10 @@
         <v>27428</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
@@ -3525,13 +3690,13 @@
         <v>70278</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3764,13 @@
         <v>16317</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3614,13 +3779,13 @@
         <v>4327</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -3629,13 +3794,13 @@
         <v>20644</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3815,13 @@
         <v>20829</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -3665,13 +3830,13 @@
         <v>30705</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
@@ -3680,13 +3845,13 @@
         <v>51535</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3919,13 @@
         <v>6305</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3769,13 +3934,13 @@
         <v>993</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3784,13 +3949,13 @@
         <v>7298</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3970,13 @@
         <v>6616</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -3820,10 +3985,10 @@
         <v>40764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -3835,13 +4000,13 @@
         <v>47380</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,37 +4080,37 @@
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>1183</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1183</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="P19" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,49 +4119,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D20" s="7">
-        <v>39330</v>
+        <v>17298</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H20" s="7">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I20" s="7">
-        <v>78340</v>
+        <v>25331</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>209</v>
+        <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="7">
+        <v>42</v>
+      </c>
+      <c r="N20" s="7">
+        <v>42629</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="7">
-        <v>111</v>
-      </c>
-      <c r="N20" s="7">
-        <v>117670</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,10 +4170,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D21" s="7">
-        <v>39330</v>
+        <v>17298</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -4020,10 +4185,10 @@
         <v>26</v>
       </c>
       <c r="H21" s="7">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I21" s="7">
-        <v>79523</v>
+        <v>25331</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -4035,10 +4200,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="7">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="N21" s="7">
-        <v>118853</v>
+        <v>42629</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -4052,55 +4217,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>62196</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1183</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H22" s="7">
-        <v>11</v>
-      </c>
-      <c r="I22" s="7">
-        <v>13446</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1183</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="M22" s="7">
-        <v>73</v>
-      </c>
-      <c r="N22" s="7">
-        <v>75642</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,49 +4274,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="D23" s="7">
-        <v>224776</v>
+        <v>22032</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="7">
+        <v>48</v>
+      </c>
+      <c r="I23" s="7">
+        <v>53009</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="7">
+        <v>69</v>
+      </c>
+      <c r="N23" s="7">
+        <v>75041</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H23" s="7">
-        <v>228</v>
-      </c>
-      <c r="I23" s="7">
-        <v>241959</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M23" s="7">
-        <v>441</v>
-      </c>
-      <c r="N23" s="7">
-        <v>466735</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>230</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,63 +4325,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>21</v>
+      </c>
+      <c r="D24" s="7">
+        <v>22032</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
+        <v>49</v>
+      </c>
+      <c r="I24" s="7">
+        <v>54192</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="7">
+        <v>70</v>
+      </c>
+      <c r="N24" s="7">
+        <v>76224</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>62</v>
+      </c>
+      <c r="D25" s="7">
+        <v>62196</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H25" s="7">
+        <v>11</v>
+      </c>
+      <c r="I25" s="7">
+        <v>13446</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" s="7">
+        <v>73</v>
+      </c>
+      <c r="N25" s="7">
+        <v>75642</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>213</v>
+      </c>
+      <c r="D26" s="7">
+        <v>224776</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H26" s="7">
+        <v>228</v>
+      </c>
+      <c r="I26" s="7">
+        <v>241959</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M26" s="7">
+        <v>441</v>
+      </c>
+      <c r="N26" s="7">
+        <v>466735</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>275</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>286972</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7">
         <v>239</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>255405</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="7">
         <v>514</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>542377</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>117</v>
+      <c r="O27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4229,8 +4550,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE3954D-04B6-4E8B-8CDD-9B971945F2BF}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3CF88D-3443-4F5A-90C4-08D3816584EB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4246,7 +4567,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4353,13 +4674,13 @@
         <v>969</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4368,13 +4689,13 @@
         <v>1966</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4383,13 +4704,13 @@
         <v>2936</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,10 +4725,10 @@
         <v>41953</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -4419,10 +4740,10 @@
         <v>16298</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -4434,13 +4755,13 @@
         <v>58250</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,13 +4829,13 @@
         <v>12800</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4523,13 +4844,13 @@
         <v>3953</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -4538,13 +4859,13 @@
         <v>16753</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,13 +4880,13 @@
         <v>38057</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -4574,13 +4895,13 @@
         <v>18726</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -4589,13 +4910,13 @@
         <v>56783</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,10 +4984,10 @@
         <v>8278</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>90</v>
@@ -4678,13 +4999,13 @@
         <v>1866</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4693,13 +5014,13 @@
         <v>10143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,13 +5035,13 @@
         <v>27580</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>85</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -4729,10 +5050,10 @@
         <v>23182</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
@@ -4744,13 +5065,13 @@
         <v>50763</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +5139,13 @@
         <v>6459</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4833,13 +5154,13 @@
         <v>3125</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4848,13 +5169,13 @@
         <v>9584</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,13 +5190,13 @@
         <v>22373</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -4884,13 +5205,13 @@
         <v>21360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -4899,13 +5220,13 @@
         <v>43734</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +5294,13 @@
         <v>1036</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4988,13 +5309,13 @@
         <v>3208</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -5003,13 +5324,13 @@
         <v>4244</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,10 +5345,10 @@
         <v>12953</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
@@ -5039,13 +5360,13 @@
         <v>27150</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -5054,13 +5375,13 @@
         <v>40103</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,7 +5455,7 @@
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>310</v>
+        <v>16</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5149,7 +5470,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5164,7 +5485,7 @@
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,46 +5494,46 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D20" s="7">
-        <v>25311</v>
+        <v>10932</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H20" s="7">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="I20" s="7">
-        <v>70619</v>
+        <v>29301</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M20" s="7">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="N20" s="7">
-        <v>95930</v>
+        <v>40233</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>26</v>
@@ -5224,25 +5545,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7">
+        <v>10932</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="7">
         <v>28</v>
       </c>
-      <c r="D21" s="7">
-        <v>25311</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>59</v>
-      </c>
       <c r="I21" s="7">
-        <v>70619</v>
+        <v>29301</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -5254,10 +5575,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="7">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="N21" s="7">
-        <v>95930</v>
+        <v>40233</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -5271,55 +5592,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>29542</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>316</v>
+        <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>317</v>
+        <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="7">
-        <v>14118</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M22" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>43660</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,49 +5649,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="D23" s="7">
-        <v>168227</v>
+        <v>14379</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>24</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>326</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="7">
+        <v>31</v>
+      </c>
+      <c r="I23" s="7">
+        <v>41318</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="H23" s="7">
-        <v>158</v>
-      </c>
-      <c r="I23" s="7">
-        <v>177335</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="7">
+        <v>48</v>
+      </c>
+      <c r="N23" s="7">
+        <v>55697</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M23" s="7">
-        <v>321</v>
-      </c>
-      <c r="N23" s="7">
-        <v>345563</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>333</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,63 +5700,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>17</v>
+      </c>
+      <c r="D24" s="7">
+        <v>14379</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
+        <v>31</v>
+      </c>
+      <c r="I24" s="7">
+        <v>41318</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="7">
+        <v>48</v>
+      </c>
+      <c r="N24" s="7">
+        <v>55697</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>28</v>
+      </c>
+      <c r="D25" s="7">
+        <v>29542</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H25" s="7">
+        <v>14</v>
+      </c>
+      <c r="I25" s="7">
+        <v>14118</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M25" s="7">
+        <v>42</v>
+      </c>
+      <c r="N25" s="7">
+        <v>43660</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>163</v>
+      </c>
+      <c r="D26" s="7">
+        <v>168227</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H26" s="7">
+        <v>158</v>
+      </c>
+      <c r="I26" s="7">
+        <v>177335</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="M26" s="7">
+        <v>321</v>
+      </c>
+      <c r="N26" s="7">
+        <v>345563</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>191</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>197769</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7">
         <v>172</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>191453</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="7">
         <v>363</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>389223</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>117</v>
+      <c r="O27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5448,8 +5925,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0D4621-6D3B-4AB6-A7AA-A74DD4D935AD}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D515F4-C044-4BAD-B133-FD5E51A00A4A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5465,7 +5942,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5569,46 +6046,46 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>5584</v>
+        <v>5534</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>114</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>3969</v>
+        <v>3239</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>9554</v>
+        <v>8773</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,13 +6097,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>12426</v>
+        <v>13603</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>122</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -5635,13 +6112,13 @@
         <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>18957</v>
+        <v>16689</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>24</v>
@@ -5650,16 +6127,16 @@
         <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>31382</v>
+        <v>30292</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,7 +6148,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>18010</v>
+        <v>19137</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -5686,7 +6163,7 @@
         <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>22926</v>
+        <v>19928</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -5701,7 +6178,7 @@
         <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>40936</v>
+        <v>39065</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
@@ -5724,46 +6201,46 @@
         <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>10120</v>
+        <v>9378</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1223</v>
+        <v>1157</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>11344</v>
+        <v>10534</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,28 +6252,28 @@
         <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>17283</v>
+        <v>17889</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
       </c>
       <c r="I8" s="7">
-        <v>15149</v>
+        <v>13817</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -5805,16 +6282,16 @@
         <v>25</v>
       </c>
       <c r="N8" s="7">
-        <v>32431</v>
+        <v>31706</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,7 +6303,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="7">
-        <v>27403</v>
+        <v>27267</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -5841,7 +6318,7 @@
         <v>15</v>
       </c>
       <c r="I9" s="7">
-        <v>16372</v>
+        <v>14974</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -5856,7 +6333,7 @@
         <v>34</v>
       </c>
       <c r="N9" s="7">
-        <v>43775</v>
+        <v>42240</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -5879,46 +6356,46 @@
         <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>9055</v>
+        <v>8938</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>133</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>2885</v>
+        <v>2709</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>11940</v>
+        <v>11647</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,46 +6407,46 @@
         <v>26</v>
       </c>
       <c r="D11" s="7">
-        <v>28251</v>
+        <v>28064</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>140</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>26982</v>
+        <v>25325</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="M11" s="7">
         <v>65</v>
       </c>
       <c r="N11" s="7">
-        <v>55233</v>
+        <v>53390</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>380</v>
+        <v>187</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,7 +6458,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="7">
-        <v>37306</v>
+        <v>37002</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -5996,7 +6473,7 @@
         <v>43</v>
       </c>
       <c r="I12" s="7">
-        <v>29867</v>
+        <v>28034</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -6011,7 +6488,7 @@
         <v>77</v>
       </c>
       <c r="N12" s="7">
-        <v>67173</v>
+        <v>65037</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -6034,46 +6511,46 @@
         <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>13167</v>
+        <v>12572</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>2651</v>
+        <v>2387</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>385</v>
+        <v>197</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>386</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>15818</v>
+        <v>14959</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,46 +6562,46 @@
         <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>38482</v>
+        <v>37196</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
       </c>
       <c r="I14" s="7">
-        <v>29007</v>
+        <v>26998</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>205</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
       </c>
       <c r="N14" s="7">
-        <v>67490</v>
+        <v>64195</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,7 +6613,7 @@
         <v>52</v>
       </c>
       <c r="D15" s="7">
-        <v>51649</v>
+        <v>49768</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -6151,7 +6628,7 @@
         <v>50</v>
       </c>
       <c r="I15" s="7">
-        <v>31658</v>
+        <v>29385</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -6166,7 +6643,7 @@
         <v>102</v>
       </c>
       <c r="N15" s="7">
-        <v>83308</v>
+        <v>79154</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -6189,46 +6666,46 @@
         <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>9504</v>
+        <v>9182</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>6091</v>
+        <v>5788</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>128</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
       </c>
       <c r="N16" s="7">
-        <v>15595</v>
+        <v>14970</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,13 +6717,13 @@
         <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>21242</v>
+        <v>19751</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>350</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>410</v>
@@ -6255,31 +6732,31 @@
         <v>52</v>
       </c>
       <c r="I17" s="7">
-        <v>32105</v>
+        <v>29601</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
       </c>
       <c r="N17" s="7">
-        <v>53347</v>
+        <v>49351</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,7 +6768,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="7">
-        <v>30746</v>
+        <v>28933</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>26</v>
@@ -6306,7 +6783,7 @@
         <v>62</v>
       </c>
       <c r="I18" s="7">
-        <v>38196</v>
+        <v>35389</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -6321,7 +6798,7 @@
         <v>96</v>
       </c>
       <c r="N18" s="7">
-        <v>68942</v>
+        <v>64321</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -6344,46 +6821,46 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>943</v>
+        <v>884</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>1414</v>
+        <v>1375</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,46 +6869,46 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D20" s="7">
-        <v>37724</v>
+        <v>15401</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="7">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="I20" s="7">
-        <v>92787</v>
+        <v>32452</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M20" s="7">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="N20" s="7">
-        <v>130511</v>
+        <v>47855</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -6443,10 +6920,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D21" s="7">
-        <v>38667</v>
+        <v>16285</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -6458,10 +6935,10 @@
         <v>26</v>
       </c>
       <c r="H21" s="7">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="I21" s="7">
-        <v>93258</v>
+        <v>32944</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -6473,10 +6950,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="7">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="N21" s="7">
-        <v>131925</v>
+        <v>49230</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -6490,55 +6967,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>48374</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="H22" s="7">
-        <v>22</v>
-      </c>
-      <c r="I22" s="7">
-        <v>17291</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="M22" s="7">
-        <v>63</v>
-      </c>
-      <c r="N22" s="7">
-        <v>65666</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,49 +7024,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="D23" s="7">
-        <v>155408</v>
+        <v>20737</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>438</v>
+        <v>24</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>440</v>
+        <v>26</v>
       </c>
       <c r="H23" s="7">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="I23" s="7">
-        <v>214986</v>
+        <v>52949</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>441</v>
+        <v>24</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>443</v>
+        <v>26</v>
       </c>
       <c r="M23" s="7">
-        <v>507</v>
+        <v>149</v>
       </c>
       <c r="N23" s="7">
-        <v>370393</v>
+        <v>73686</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>444</v>
+        <v>24</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>446</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,63 +7075,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>38</v>
+      </c>
+      <c r="D24" s="7">
+        <v>20737</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
+        <v>111</v>
+      </c>
+      <c r="I24" s="7">
+        <v>52949</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="7">
+        <v>149</v>
+      </c>
+      <c r="N24" s="7">
+        <v>73686</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>41</v>
+      </c>
+      <c r="D25" s="7">
+        <v>46487</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H25" s="7">
+        <v>22</v>
+      </c>
+      <c r="I25" s="7">
+        <v>15772</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M25" s="7">
+        <v>63</v>
+      </c>
+      <c r="N25" s="7">
+        <v>62259</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>170</v>
+      </c>
+      <c r="D26" s="7">
+        <v>152643</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H26" s="7">
+        <v>337</v>
+      </c>
+      <c r="I26" s="7">
+        <v>197831</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="M26" s="7">
+        <v>507</v>
+      </c>
+      <c r="N26" s="7">
+        <v>350474</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>211</v>
       </c>
-      <c r="D24" s="7">
-        <v>203782</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>199130</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7">
         <v>359</v>
       </c>
-      <c r="I24" s="7">
-        <v>232277</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>213603</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="7">
         <v>570</v>
       </c>
-      <c r="N24" s="7">
-        <v>436059</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>117</v>
+      <c r="N27" s="7">
+        <v>412733</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
